--- a/06-03-2023/data/output/xlsx/sample_0/category__15.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/category__15.xlsx
@@ -58,6 +58,30 @@
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__9</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
@@ -85,28 +109,133 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__9</t>
+    <t>num_of_mults_and_divs__0</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__2</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__3</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__4</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__5</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__6</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__7</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__9</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__10</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__11</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__12</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__0</t>
+  </si>
+  <si>
+    <t>num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__3</t>
+  </si>
+  <si>
+    <t>num_of_equals__4</t>
+  </si>
+  <si>
+    <t>num_of_equals__5</t>
+  </si>
+  <si>
+    <t>num_of_equals__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_equals__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__9</t>
+  </si>
+  <si>
+    <t>num_of_equals__10</t>
+  </si>
+  <si>
+    <t>num_of_equals__11</t>
+  </si>
+  <si>
+    <t>num_of_equals__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__4</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__7</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__10</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__11</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__13</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__14</t>
   </si>
   <si>
     <t>num_of_decimals__0</t>
@@ -115,6 +244,30 @@
     <t>num_of_decimals__1</t>
   </si>
   <si>
+    <t>num_of_decimals__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__4</t>
+  </si>
+  <si>
+    <t>num_of_decimals__5</t>
+  </si>
+  <si>
+    <t>num_of_decimals__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__7</t>
+  </si>
+  <si>
+    <t>num_of_decimals__8</t>
+  </si>
+  <si>
+    <t>num_of_decimals__9</t>
+  </si>
+  <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
@@ -145,9 +298,6 @@
     <t>num_of_decimals__19</t>
   </si>
   <si>
-    <t>num_of_decimals__2</t>
-  </si>
-  <si>
     <t>num_of_decimals__20</t>
   </si>
   <si>
@@ -178,117 +328,36 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_decimals__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__4</t>
-  </si>
-  <si>
-    <t>num_of_decimals__5</t>
-  </si>
-  <si>
-    <t>num_of_decimals__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__7</t>
-  </si>
-  <si>
-    <t>num_of_decimals__8</t>
-  </si>
-  <si>
-    <t>num_of_decimals__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_equals__10</t>
-  </si>
-  <si>
-    <t>num_of_equals__11</t>
-  </si>
-  <si>
-    <t>num_of_equals__12</t>
-  </si>
-  <si>
-    <t>num_of_equals__13</t>
-  </si>
-  <si>
-    <t>num_of_equals__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__3</t>
-  </si>
-  <si>
-    <t>num_of_equals__4</t>
-  </si>
-  <si>
-    <t>num_of_equals__5</t>
-  </si>
-  <si>
-    <t>num_of_equals__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__7</t>
-  </si>
-  <si>
-    <t>num_of_equals__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__9</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__0</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__1</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__10</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__11</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__12</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__13</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__3</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__4</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__5</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__6</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__7</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__8</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__9</t>
-  </si>
-  <si>
     <t>num_of_unknowns__0</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
   </si>
   <si>
+    <t>num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__9</t>
+  </si>
+  <si>
     <t>num_of_unknowns__10</t>
   </si>
   <si>
@@ -296,75 +365,6 @@
   </si>
   <si>
     <t>num_of_unknowns__12</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__10</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__11</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__12</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__4</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__6</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__9</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -1834,7 +1834,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -1855,7 +1855,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
@@ -1876,7 +1876,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
@@ -1897,7 +1897,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
@@ -1918,7 +1918,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -1939,7 +1939,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
@@ -1960,7 +1960,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
@@ -1981,7 +1981,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -2002,7 +2002,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
@@ -2023,7 +2023,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="1">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
@@ -2044,7 +2044,7 @@
         <v>22</v>
       </c>
       <c r="B15" s="1">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>13</v>
@@ -2065,7 +2065,7 @@
         <v>23</v>
       </c>
       <c r="B16" s="1">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1">
         <v>14</v>
@@ -2086,7 +2086,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="1">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>15</v>
@@ -2107,7 +2107,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="1">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1">
         <v>16</v>
@@ -2128,7 +2128,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
         <v>17</v>
@@ -2149,7 +2149,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>18</v>
@@ -2170,7 +2170,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>19</v>
@@ -2191,7 +2191,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="1">
-        <v>622</v>
+        <v>187</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
@@ -2212,7 +2212,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="1">
-        <v>492</v>
+        <v>142</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
@@ -2233,7 +2233,7 @@
         <v>31</v>
       </c>
       <c r="B24" s="1">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
@@ -2254,7 +2254,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="1">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
@@ -2275,7 +2275,7 @@
         <v>33</v>
       </c>
       <c r="B26" s="1">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
@@ -2296,7 +2296,7 @@
         <v>34</v>
       </c>
       <c r="B27" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
@@ -2317,7 +2317,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
@@ -2338,7 +2338,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
@@ -2359,7 +2359,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
@@ -2380,7 +2380,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
@@ -2401,7 +2401,7 @@
         <v>39</v>
       </c>
       <c r="B32" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
@@ -2443,7 +2443,7 @@
         <v>41</v>
       </c>
       <c r="B34" s="1">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
@@ -2464,7 +2464,7 @@
         <v>42</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -2485,7 +2485,7 @@
         <v>43</v>
       </c>
       <c r="B36" s="1">
-        <v>2</v>
+        <v>997</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
@@ -2506,7 +2506,7 @@
         <v>44</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
@@ -2527,7 +2527,7 @@
         <v>45</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>539</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
@@ -2548,7 +2548,7 @@
         <v>46</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>344</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
@@ -2569,7 +2569,7 @@
         <v>47</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
@@ -2590,7 +2590,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
@@ -2611,7 +2611,7 @@
         <v>49</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
@@ -2632,7 +2632,7 @@
         <v>50</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
@@ -2653,7 +2653,7 @@
         <v>51</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
@@ -2674,7 +2674,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="1">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
@@ -2695,7 +2695,7 @@
         <v>53</v>
       </c>
       <c r="B46" s="1">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1">
         <v>44</v>
@@ -2716,7 +2716,7 @@
         <v>54</v>
       </c>
       <c r="B47" s="1">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
@@ -2737,7 +2737,7 @@
         <v>55</v>
       </c>
       <c r="B48" s="1">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1">
         <v>46</v>
@@ -2758,7 +2758,7 @@
         <v>56</v>
       </c>
       <c r="B49" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1">
         <v>47</v>
@@ -2779,7 +2779,7 @@
         <v>57</v>
       </c>
       <c r="B50" s="1">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
@@ -2800,7 +2800,7 @@
         <v>58</v>
       </c>
       <c r="B51" s="1">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
@@ -2821,7 +2821,7 @@
         <v>59</v>
       </c>
       <c r="B52" s="1">
-        <v>997</v>
+        <v>75</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
@@ -2842,7 +2842,7 @@
         <v>60</v>
       </c>
       <c r="B53" s="1">
-        <v>991</v>
+        <v>43</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
@@ -2863,7 +2863,7 @@
         <v>61</v>
       </c>
       <c r="B54" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C54" s="1">
         <v>52</v>
@@ -2884,7 +2884,7 @@
         <v>62</v>
       </c>
       <c r="B55" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1">
         <v>53</v>
@@ -2905,7 +2905,7 @@
         <v>63</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
@@ -2926,7 +2926,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
@@ -2947,7 +2947,7 @@
         <v>65</v>
       </c>
       <c r="B58" s="1">
-        <v>539</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
@@ -2968,7 +2968,7 @@
         <v>66</v>
       </c>
       <c r="B59" s="1">
-        <v>344</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
@@ -2989,7 +2989,7 @@
         <v>67</v>
       </c>
       <c r="B60" s="1">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
@@ -3010,7 +3010,7 @@
         <v>68</v>
       </c>
       <c r="B61" s="1">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
@@ -3031,7 +3031,7 @@
         <v>69</v>
       </c>
       <c r="B62" s="1">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
@@ -3052,7 +3052,7 @@
         <v>70</v>
       </c>
       <c r="B63" s="1">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
@@ -3073,7 +3073,7 @@
         <v>71</v>
       </c>
       <c r="B64" s="1">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C64" s="1">
         <v>62</v>
@@ -3094,7 +3094,7 @@
         <v>72</v>
       </c>
       <c r="B65" s="1">
-        <v>17</v>
+        <v>622</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
@@ -3115,7 +3115,7 @@
         <v>73</v>
       </c>
       <c r="B66" s="1">
-        <v>187</v>
+        <v>492</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
@@ -3136,7 +3136,7 @@
         <v>74</v>
       </c>
       <c r="B67" s="1">
-        <v>142</v>
+        <v>365</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
@@ -3157,7 +3157,7 @@
         <v>75</v>
       </c>
       <c r="B68" s="1">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
@@ -3178,7 +3178,7 @@
         <v>76</v>
       </c>
       <c r="B69" s="1">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
@@ -3199,7 +3199,7 @@
         <v>77</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
@@ -3220,7 +3220,7 @@
         <v>78</v>
       </c>
       <c r="B71" s="1">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
@@ -3241,7 +3241,7 @@
         <v>79</v>
       </c>
       <c r="B72" s="1">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
@@ -3262,7 +3262,7 @@
         <v>80</v>
       </c>
       <c r="B73" s="1">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
@@ -3283,7 +3283,7 @@
         <v>81</v>
       </c>
       <c r="B74" s="1">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
@@ -3304,7 +3304,7 @@
         <v>82</v>
       </c>
       <c r="B75" s="1">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
@@ -3325,7 +3325,7 @@
         <v>83</v>
       </c>
       <c r="B76" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
@@ -3346,7 +3346,7 @@
         <v>84</v>
       </c>
       <c r="B77" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
@@ -3367,7 +3367,7 @@
         <v>85</v>
       </c>
       <c r="B78" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
@@ -3388,7 +3388,7 @@
         <v>86</v>
       </c>
       <c r="B79" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
@@ -3409,7 +3409,7 @@
         <v>87</v>
       </c>
       <c r="B80" s="1">
-        <v>998</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
@@ -3430,7 +3430,7 @@
         <v>88</v>
       </c>
       <c r="B81" s="1">
-        <v>683</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
@@ -3451,7 +3451,7 @@
         <v>89</v>
       </c>
       <c r="B82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
@@ -3472,7 +3472,7 @@
         <v>90</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
@@ -3493,7 +3493,7 @@
         <v>91</v>
       </c>
       <c r="B84" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1">
         <v>82</v>
@@ -3514,7 +3514,7 @@
         <v>92</v>
       </c>
       <c r="B85" s="1">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
@@ -3535,7 +3535,7 @@
         <v>93</v>
       </c>
       <c r="B86" s="1">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C86" s="1">
         <v>84</v>
@@ -3556,7 +3556,7 @@
         <v>94</v>
       </c>
       <c r="B87" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
@@ -3577,7 +3577,7 @@
         <v>95</v>
       </c>
       <c r="B88" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C88" s="1">
         <v>86</v>
@@ -3598,7 +3598,7 @@
         <v>96</v>
       </c>
       <c r="B89" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1">
         <v>87</v>
@@ -3619,7 +3619,7 @@
         <v>97</v>
       </c>
       <c r="B90" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1">
         <v>88</v>
@@ -3640,7 +3640,7 @@
         <v>98</v>
       </c>
       <c r="B91" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1">
         <v>89</v>
@@ -3661,7 +3661,7 @@
         <v>99</v>
       </c>
       <c r="B92" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" s="1">
         <v>90</v>
@@ -3682,7 +3682,7 @@
         <v>100</v>
       </c>
       <c r="B93" s="1">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
@@ -3703,7 +3703,7 @@
         <v>101</v>
       </c>
       <c r="B94" s="1">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
@@ -3724,7 +3724,7 @@
         <v>102</v>
       </c>
       <c r="B95" s="1">
-        <v>3</v>
+        <v>998</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
@@ -3745,7 +3745,7 @@
         <v>103</v>
       </c>
       <c r="B96" s="1">
-        <v>3</v>
+        <v>683</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
@@ -3766,7 +3766,7 @@
         <v>104</v>
       </c>
       <c r="B97" s="1">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
@@ -3787,7 +3787,7 @@
         <v>105</v>
       </c>
       <c r="B98" s="1">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
@@ -3808,7 +3808,7 @@
         <v>106</v>
       </c>
       <c r="B99" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
@@ -3829,7 +3829,7 @@
         <v>107</v>
       </c>
       <c r="B100" s="1">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
@@ -3850,7 +3850,7 @@
         <v>108</v>
       </c>
       <c r="B101" s="1">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -3871,7 +3871,7 @@
         <v>109</v>
       </c>
       <c r="B102" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
@@ -3892,7 +3892,7 @@
         <v>110</v>
       </c>
       <c r="B103" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
@@ -3913,7 +3913,7 @@
         <v>111</v>
       </c>
       <c r="B104" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C104" s="1">
         <v>102</v>
@@ -3934,7 +3934,7 @@
         <v>112</v>
       </c>
       <c r="B105" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="1">
         <v>103</v>
@@ -3955,7 +3955,7 @@
         <v>113</v>
       </c>
       <c r="B106" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106" s="1">
         <v>104</v>
@@ -3976,7 +3976,7 @@
         <v>114</v>
       </c>
       <c r="B107" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" s="1">
         <v>105</v>

--- a/06-03-2023/data/output/xlsx/sample_0/category__15.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/category__15.xlsx
@@ -109,6 +109,138 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
+    <t>num_of_decimals__0</t>
+  </si>
+  <si>
+    <t>num_of_decimals__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__2</t>
+  </si>
+  <si>
+    <t>num_of_decimals__3</t>
+  </si>
+  <si>
+    <t>num_of_decimals__4</t>
+  </si>
+  <si>
+    <t>num_of_decimals__5</t>
+  </si>
+  <si>
+    <t>num_of_decimals__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__7</t>
+  </si>
+  <si>
+    <t>num_of_decimals__8</t>
+  </si>
+  <si>
+    <t>num_of_decimals__9</t>
+  </si>
+  <si>
+    <t>num_of_decimals__10</t>
+  </si>
+  <si>
+    <t>num_of_decimals__11</t>
+  </si>
+  <si>
+    <t>num_of_decimals__12</t>
+  </si>
+  <si>
+    <t>num_of_decimals__13</t>
+  </si>
+  <si>
+    <t>num_of_decimals__14</t>
+  </si>
+  <si>
+    <t>num_of_decimals__15</t>
+  </si>
+  <si>
+    <t>num_of_decimals__16</t>
+  </si>
+  <si>
+    <t>num_of_decimals__17</t>
+  </si>
+  <si>
+    <t>num_of_decimals__18</t>
+  </si>
+  <si>
+    <t>num_of_decimals__19</t>
+  </si>
+  <si>
+    <t>num_of_decimals__20</t>
+  </si>
+  <si>
+    <t>num_of_decimals__21</t>
+  </si>
+  <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
+    <t>num_of_equals__0</t>
+  </si>
+  <si>
+    <t>num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__3</t>
+  </si>
+  <si>
+    <t>num_of_equals__4</t>
+  </si>
+  <si>
+    <t>num_of_equals__5</t>
+  </si>
+  <si>
+    <t>num_of_equals__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_equals__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__9</t>
+  </si>
+  <si>
+    <t>num_of_equals__10</t>
+  </si>
+  <si>
+    <t>num_of_equals__11</t>
+  </si>
+  <si>
+    <t>num_of_equals__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__0</t>
   </si>
   <si>
@@ -151,46 +283,43 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_equals__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__3</t>
-  </si>
-  <si>
-    <t>num_of_equals__4</t>
-  </si>
-  <si>
-    <t>num_of_equals__5</t>
-  </si>
-  <si>
-    <t>num_of_equals__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__7</t>
-  </si>
-  <si>
-    <t>num_of_equals__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__10</t>
-  </si>
-  <si>
-    <t>num_of_equals__11</t>
-  </si>
-  <si>
-    <t>num_of_equals__12</t>
-  </si>
-  <si>
-    <t>num_of_equals__13</t>
+    <t>num_of_unknowns__0</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__10</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__11</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__12</t>
   </si>
   <si>
     <t>pairs_of_parentheses__0</t>
@@ -236,135 +365,6 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0</t>
-  </si>
-  <si>
-    <t>num_of_decimals__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__2</t>
-  </si>
-  <si>
-    <t>num_of_decimals__3</t>
-  </si>
-  <si>
-    <t>num_of_decimals__4</t>
-  </si>
-  <si>
-    <t>num_of_decimals__5</t>
-  </si>
-  <si>
-    <t>num_of_decimals__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__7</t>
-  </si>
-  <si>
-    <t>num_of_decimals__8</t>
-  </si>
-  <si>
-    <t>num_of_decimals__9</t>
-  </si>
-  <si>
-    <t>num_of_decimals__10</t>
-  </si>
-  <si>
-    <t>num_of_decimals__11</t>
-  </si>
-  <si>
-    <t>num_of_decimals__12</t>
-  </si>
-  <si>
-    <t>num_of_decimals__13</t>
-  </si>
-  <si>
-    <t>num_of_decimals__14</t>
-  </si>
-  <si>
-    <t>num_of_decimals__15</t>
-  </si>
-  <si>
-    <t>num_of_decimals__16</t>
-  </si>
-  <si>
-    <t>num_of_decimals__17</t>
-  </si>
-  <si>
-    <t>num_of_decimals__18</t>
-  </si>
-  <si>
-    <t>num_of_decimals__19</t>
-  </si>
-  <si>
-    <t>num_of_decimals__20</t>
-  </si>
-  <si>
-    <t>num_of_decimals__21</t>
-  </si>
-  <si>
-    <t>num_of_decimals__22</t>
-  </si>
-  <si>
-    <t>num_of_decimals__23</t>
-  </si>
-  <si>
-    <t>num_of_decimals__24</t>
-  </si>
-  <si>
-    <t>num_of_decimals__25</t>
-  </si>
-  <si>
-    <t>num_of_decimals__26</t>
-  </si>
-  <si>
-    <t>num_of_decimals__27</t>
-  </si>
-  <si>
-    <t>num_of_decimals__28</t>
-  </si>
-  <si>
-    <t>num_of_decimals__29</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__0</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__11</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__12</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -2191,7 +2191,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="1">
-        <v>187</v>
+        <v>622</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
@@ -2212,7 +2212,7 @@
         <v>30</v>
       </c>
       <c r="B23" s="1">
-        <v>142</v>
+        <v>492</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
@@ -2233,7 +2233,7 @@
         <v>31</v>
       </c>
       <c r="B24" s="1">
-        <v>93</v>
+        <v>365</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
@@ -2254,7 +2254,7 @@
         <v>32</v>
       </c>
       <c r="B25" s="1">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
@@ -2275,7 +2275,7 @@
         <v>33</v>
       </c>
       <c r="B26" s="1">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
@@ -2296,7 +2296,7 @@
         <v>34</v>
       </c>
       <c r="B27" s="1">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
@@ -2317,7 +2317,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="1">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
@@ -2338,7 +2338,7 @@
         <v>36</v>
       </c>
       <c r="B29" s="1">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
@@ -2359,7 +2359,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="1">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
@@ -2380,7 +2380,7 @@
         <v>38</v>
       </c>
       <c r="B31" s="1">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
@@ -2401,7 +2401,7 @@
         <v>39</v>
       </c>
       <c r="B32" s="1">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
@@ -2422,7 +2422,7 @@
         <v>40</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C33" s="1">
         <v>31</v>
@@ -2443,7 +2443,7 @@
         <v>41</v>
       </c>
       <c r="B34" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
@@ -2464,7 +2464,7 @@
         <v>42</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -2485,7 +2485,7 @@
         <v>43</v>
       </c>
       <c r="B36" s="1">
-        <v>997</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
@@ -2506,7 +2506,7 @@
         <v>44</v>
       </c>
       <c r="B37" s="1">
-        <v>991</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
@@ -2527,7 +2527,7 @@
         <v>45</v>
       </c>
       <c r="B38" s="1">
-        <v>539</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
@@ -2548,7 +2548,7 @@
         <v>46</v>
       </c>
       <c r="B39" s="1">
-        <v>344</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
@@ -2569,7 +2569,7 @@
         <v>47</v>
       </c>
       <c r="B40" s="1">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
@@ -2590,7 +2590,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="1">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
@@ -2611,7 +2611,7 @@
         <v>49</v>
       </c>
       <c r="B42" s="1">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
@@ -2632,7 +2632,7 @@
         <v>50</v>
       </c>
       <c r="B43" s="1">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
@@ -2653,7 +2653,7 @@
         <v>51</v>
       </c>
       <c r="B44" s="1">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
@@ -2674,7 +2674,7 @@
         <v>52</v>
       </c>
       <c r="B45" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
@@ -2695,7 +2695,7 @@
         <v>53</v>
       </c>
       <c r="B46" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1">
         <v>44</v>
@@ -2716,7 +2716,7 @@
         <v>54</v>
       </c>
       <c r="B47" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
@@ -2779,7 +2779,7 @@
         <v>57</v>
       </c>
       <c r="B50" s="1">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
@@ -2800,7 +2800,7 @@
         <v>58</v>
       </c>
       <c r="B51" s="1">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
@@ -2821,7 +2821,7 @@
         <v>59</v>
       </c>
       <c r="B52" s="1">
-        <v>75</v>
+        <v>997</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
@@ -2842,7 +2842,7 @@
         <v>60</v>
       </c>
       <c r="B53" s="1">
-        <v>43</v>
+        <v>991</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
@@ -2863,7 +2863,7 @@
         <v>61</v>
       </c>
       <c r="B54" s="1">
-        <v>25</v>
+        <v>539</v>
       </c>
       <c r="C54" s="1">
         <v>52</v>
@@ -2884,7 +2884,7 @@
         <v>62</v>
       </c>
       <c r="B55" s="1">
-        <v>17</v>
+        <v>344</v>
       </c>
       <c r="C55" s="1">
         <v>53</v>
@@ -2905,7 +2905,7 @@
         <v>63</v>
       </c>
       <c r="B56" s="1">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
@@ -2926,7 +2926,7 @@
         <v>64</v>
       </c>
       <c r="B57" s="1">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
@@ -2947,7 +2947,7 @@
         <v>65</v>
       </c>
       <c r="B58" s="1">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
@@ -2968,7 +2968,7 @@
         <v>66</v>
       </c>
       <c r="B59" s="1">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
@@ -2989,7 +2989,7 @@
         <v>67</v>
       </c>
       <c r="B60" s="1">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
@@ -3010,7 +3010,7 @@
         <v>68</v>
       </c>
       <c r="B61" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
@@ -3031,7 +3031,7 @@
         <v>69</v>
       </c>
       <c r="B62" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
@@ -3052,7 +3052,7 @@
         <v>70</v>
       </c>
       <c r="B63" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
@@ -3094,7 +3094,7 @@
         <v>72</v>
       </c>
       <c r="B65" s="1">
-        <v>622</v>
+        <v>1</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
@@ -3115,7 +3115,7 @@
         <v>73</v>
       </c>
       <c r="B66" s="1">
-        <v>492</v>
+        <v>187</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
@@ -3136,7 +3136,7 @@
         <v>74</v>
       </c>
       <c r="B67" s="1">
-        <v>365</v>
+        <v>142</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
@@ -3157,7 +3157,7 @@
         <v>75</v>
       </c>
       <c r="B68" s="1">
-        <v>253</v>
+        <v>93</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
@@ -3178,7 +3178,7 @@
         <v>76</v>
       </c>
       <c r="B69" s="1">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
@@ -3199,7 +3199,7 @@
         <v>77</v>
       </c>
       <c r="B70" s="1">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
@@ -3220,7 +3220,7 @@
         <v>78</v>
       </c>
       <c r="B71" s="1">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
@@ -3241,7 +3241,7 @@
         <v>79</v>
       </c>
       <c r="B72" s="1">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
@@ -3262,7 +3262,7 @@
         <v>80</v>
       </c>
       <c r="B73" s="1">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
@@ -3283,7 +3283,7 @@
         <v>81</v>
       </c>
       <c r="B74" s="1">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
@@ -3304,7 +3304,7 @@
         <v>82</v>
       </c>
       <c r="B75" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
@@ -3325,7 +3325,7 @@
         <v>83</v>
       </c>
       <c r="B76" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
@@ -3346,7 +3346,7 @@
         <v>84</v>
       </c>
       <c r="B77" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
@@ -3367,7 +3367,7 @@
         <v>85</v>
       </c>
       <c r="B78" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
@@ -3388,7 +3388,7 @@
         <v>86</v>
       </c>
       <c r="B79" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
@@ -3409,7 +3409,7 @@
         <v>87</v>
       </c>
       <c r="B80" s="1">
-        <v>6</v>
+        <v>998</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
@@ -3430,7 +3430,7 @@
         <v>88</v>
       </c>
       <c r="B81" s="1">
-        <v>5</v>
+        <v>683</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
@@ -3451,7 +3451,7 @@
         <v>89</v>
       </c>
       <c r="B82" s="1">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
@@ -3472,7 +3472,7 @@
         <v>90</v>
       </c>
       <c r="B83" s="1">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
@@ -3493,7 +3493,7 @@
         <v>91</v>
       </c>
       <c r="B84" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C84" s="1">
         <v>82</v>
@@ -3514,7 +3514,7 @@
         <v>92</v>
       </c>
       <c r="B85" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
@@ -3535,7 +3535,7 @@
         <v>93</v>
       </c>
       <c r="B86" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C86" s="1">
         <v>84</v>
@@ -3556,7 +3556,7 @@
         <v>94</v>
       </c>
       <c r="B87" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
@@ -3577,7 +3577,7 @@
         <v>95</v>
       </c>
       <c r="B88" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C88" s="1">
         <v>86</v>
@@ -3598,7 +3598,7 @@
         <v>96</v>
       </c>
       <c r="B89" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" s="1">
         <v>87</v>
@@ -3619,7 +3619,7 @@
         <v>97</v>
       </c>
       <c r="B90" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" s="1">
         <v>88</v>
@@ -3682,7 +3682,7 @@
         <v>100</v>
       </c>
       <c r="B93" s="1">
-        <v>1</v>
+        <v>398</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
@@ -3703,7 +3703,7 @@
         <v>101</v>
       </c>
       <c r="B94" s="1">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
@@ -3724,7 +3724,7 @@
         <v>102</v>
       </c>
       <c r="B95" s="1">
-        <v>998</v>
+        <v>75</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
@@ -3745,7 +3745,7 @@
         <v>103</v>
       </c>
       <c r="B96" s="1">
-        <v>683</v>
+        <v>43</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
@@ -3766,7 +3766,7 @@
         <v>104</v>
       </c>
       <c r="B97" s="1">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
@@ -3787,7 +3787,7 @@
         <v>105</v>
       </c>
       <c r="B98" s="1">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
@@ -3808,7 +3808,7 @@
         <v>106</v>
       </c>
       <c r="B99" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
@@ -3829,7 +3829,7 @@
         <v>107</v>
       </c>
       <c r="B100" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
@@ -3850,7 +3850,7 @@
         <v>108</v>
       </c>
       <c r="B101" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -3871,7 +3871,7 @@
         <v>109</v>
       </c>
       <c r="B102" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
@@ -3892,7 +3892,7 @@
         <v>110</v>
       </c>
       <c r="B103" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
